--- a/Debug/template.xlsx
+++ b/Debug/template.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,6 +444,10 @@
       </c>
       <c r="I2">
         <f>G2/125</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IF(H2&gt;0,I2/H2,0)</f>
         <v>0</v>
       </c>
     </row>

--- a/Debug/template.xlsx
+++ b/Debug/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>主播</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共直播时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑直播时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机直播时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,18 +406,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,35 +432,44 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K2">
         <f>D2/60</f>
         <v>0</v>
       </c>
-      <c r="I2">
-        <f>G2/125</f>
+      <c r="L2">
+        <f>J2/125</f>
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>IF(H2&gt;0,I2/H2,0)</f>
+      <c r="M2">
+        <f>IF(K2&gt;0,L2/K2,0)</f>
         <v>0</v>
       </c>
     </row>
